--- a/biology/Zoologie/Cosgriffius/Cosgriffius.xlsx
+++ b/biology/Zoologie/Cosgriffius/Cosgriffius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cosgriffius campi
 Cosgriffius est un genre fossile de temnospondyles trématosauridés de la famille des Trematosauridae. Selon Paleobiology Database, en 2022, ce genre est resté monotypique et la seule espèce est Cosgriffius campi.
@@ -512,9 +524,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Cosgriffius et l'espèce Cosgriffius campi ont été décrits en 1993 par Samuel Paul Welles[1],[2],[3] sur la base d'un seul crâne partiel issu de la célèbre carrière de Meteor Crater, dans la formation Moenkopi du début du Trias, en Arizona, qui a également produit des restes plus abondants du capitosaure Wellesaurus peabodyi[4]. Ce crâne était long et mince, caractéristiques généralement associées à la sous-famille des trématosauridés Lonchorhynchinae. C'est le seul trématosauridé connu de l'ouest de l'Amérique du Nord.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cosgriffius et l'espèce Cosgriffius campi ont été décrits en 1993 par Samuel Paul Welles sur la base d'un seul crâne partiel issu de la célèbre carrière de Meteor Crater, dans la formation Moenkopi du début du Trias, en Arizona, qui a également produit des restes plus abondants du capitosaure Wellesaurus peabodyi. Ce crâne était long et mince, caractéristiques généralement associées à la sous-famille des trématosauridés Lonchorhynchinae. C'est le seul trématosauridé connu de l'ouest de l'Amérique du Nord.
 </t>
         </is>
       </c>
